--- a/原住民實驗教育學校-國小.xlsx
+++ b/原住民實驗教育學校-國小.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\indigenous\About-indigenous-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99B84B9-1E35-485B-86EC-DD63455E59CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDF995F-9A7C-4976-8317-D5459F7AEAE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8976" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="110" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +672,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA4D3EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -702,11 +720,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1023,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1086,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -1073,14 +1094,14 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1091,7 +1112,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1099,14 +1120,14 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -1117,7 +1138,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1125,14 +1146,14 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -1143,7 +1164,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1151,14 +1172,14 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -1169,7 +1190,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1177,14 +1198,14 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -1195,7 +1216,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1203,25 +1224,25 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1229,14 +1250,14 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
@@ -1247,7 +1268,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1255,14 +1276,14 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
+      <c r="D9" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -1273,7 +1294,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1282,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -1299,7 +1320,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1308,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
@@ -1325,7 +1346,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1334,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>12</v>
@@ -1351,7 +1372,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -1360,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>12</v>
@@ -1377,7 +1398,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1389,10 +1410,10 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>12</v>
@@ -1403,7 +1424,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1415,10 +1436,10 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>12</v>
@@ -1429,7 +1450,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -1437,14 +1458,14 @@
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>12</v>
@@ -1455,7 +1476,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -1463,14 +1484,14 @@
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
+      <c r="D17" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>12</v>
@@ -1481,7 +1502,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -1490,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>12</v>
@@ -1507,7 +1528,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -1516,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>12</v>
@@ -1533,7 +1554,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -1542,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>12</v>
@@ -1559,7 +1580,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -1567,14 +1588,14 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
+      <c r="D21" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>12</v>
@@ -1585,7 +1606,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -1593,14 +1614,14 @@
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>12</v>
@@ -1611,7 +1632,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1619,14 +1640,14 @@
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>12</v>
@@ -1637,7 +1658,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1645,14 +1666,14 @@
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
+      <c r="D24" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>12</v>
@@ -1663,7 +1684,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -1671,14 +1692,14 @@
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
+      <c r="D25" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>12</v>
@@ -1689,7 +1710,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -1698,13 +1719,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>12</v>
@@ -1715,7 +1736,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -1723,14 +1744,14 @@
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
+      <c r="D27" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>12</v>
@@ -1741,7 +1762,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -1749,14 +1770,14 @@
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>23</v>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>12</v>
@@ -1767,7 +1788,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -1775,14 +1796,14 @@
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>12</v>
@@ -1793,7 +1814,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -1801,14 +1822,14 @@
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>76</v>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>12</v>
@@ -1819,7 +1840,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -1827,20 +1848,20 @@
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
+      <c r="D31" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.3">
@@ -1884,6 +1905,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H89">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1956,7 +1980,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1991,7 +2015,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>84</v>
@@ -1999,17 +2023,17 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -2017,7 +2041,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>84</v>
@@ -2025,17 +2049,17 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -2043,7 +2067,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>84</v>
@@ -2051,17 +2075,17 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -2069,7 +2093,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>84</v>
@@ -2077,17 +2101,17 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -2095,7 +2119,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>84</v>
@@ -2103,17 +2127,17 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -2121,7 +2145,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>84</v>
@@ -2129,25 +2153,21 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>84</v>
@@ -2156,16 +2176,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -2199,7 +2219,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>84</v>
@@ -2208,16 +2228,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -2225,7 +2245,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>84</v>
@@ -2234,16 +2254,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -2251,7 +2271,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>84</v>
@@ -2260,16 +2280,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -2277,7 +2297,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>84</v>
@@ -2285,17 +2305,17 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
@@ -2303,7 +2323,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>84</v>
@@ -2311,17 +2331,17 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -2329,7 +2349,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>84</v>
@@ -2338,16 +2358,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -2355,7 +2375,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>84</v>
@@ -2364,16 +2384,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -2381,7 +2401,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>84</v>
@@ -2390,16 +2410,16 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
@@ -2407,7 +2427,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>84</v>
@@ -2416,16 +2436,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>12</v>
@@ -2433,7 +2453,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>84</v>
@@ -2441,17 +2461,17 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>12</v>
@@ -2459,7 +2479,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>84</v>
@@ -2467,25 +2487,21 @@
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>84</v>
@@ -2493,25 +2509,21 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
+      <c r="D21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>84</v>
@@ -2519,25 +2531,21 @@
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>84</v>
@@ -2546,24 +2554,20 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -2571,21 +2575,25 @@
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>23</v>
+      <c r="D24" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>84</v>
@@ -2593,21 +2601,25 @@
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>84</v>
@@ -2615,21 +2627,25 @@
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>23</v>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>84</v>
@@ -2637,21 +2653,25 @@
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>84</v>
@@ -2659,21 +2679,29 @@
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>58</v>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H28">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2682,7 +2710,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="A1:H19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2716,7 +2744,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>127</v>
@@ -2724,17 +2752,17 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>130</v>
@@ -2742,7 +2770,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>127</v>
@@ -2750,25 +2778,25 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>127</v>
@@ -2776,17 +2804,17 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>130</v>
@@ -2794,7 +2822,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>127</v>
@@ -2802,25 +2830,25 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
@@ -2828,25 +2856,25 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>127</v>
@@ -2855,19 +2883,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2898,7 +2926,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>127</v>
@@ -2907,16 +2935,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>130</v>
@@ -2924,7 +2952,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>127</v>
@@ -2933,24 +2961,24 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>127</v>
@@ -2958,17 +2986,17 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>130</v>
@@ -2976,7 +3004,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>127</v>
@@ -2988,13 +3016,13 @@
         <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>130</v>
@@ -3002,7 +3030,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>127</v>
@@ -3011,16 +3039,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>130</v>
@@ -3028,7 +3056,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>127</v>
@@ -3037,24 +3065,24 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>127</v>
@@ -3063,24 +3091,24 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>127</v>
@@ -3088,25 +3116,25 @@
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>127</v>
@@ -3114,17 +3142,17 @@
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>130</v>
@@ -3132,7 +3160,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>127</v>
@@ -3140,17 +3168,17 @@
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>130</v>
@@ -3158,7 +3186,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>127</v>
@@ -3166,23 +3194,26 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H19">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3193,7 +3224,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,7 +3258,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>172</v>
@@ -3235,17 +3266,17 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>130</v>
@@ -3253,7 +3284,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>172</v>
@@ -3261,17 +3292,17 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>130</v>
@@ -3279,7 +3310,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>172</v>
@@ -3288,16 +3319,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>130</v>
@@ -3305,7 +3336,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>172</v>
@@ -3313,17 +3344,17 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>130</v>
@@ -3331,7 +3362,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>172</v>
@@ -3340,16 +3371,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>130</v>
@@ -3357,7 +3388,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>172</v>
@@ -3369,13 +3400,13 @@
         <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>130</v>
@@ -3383,7 +3414,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>172</v>
@@ -3391,23 +3422,26 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H8">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3417,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50762A9-9DDC-493A-B078-8BEFF2BC0A09}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3460,7 +3494,7 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3486,7 +3520,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
